--- a/notebooks/llm_validation_labelled.xlsx
+++ b/notebooks/llm_validation_labelled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ChrisKarg/main_docs/code/axa_llm/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C93AC68-F6D3-D648-BB8C-98374A9F05BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A7FD12-0281-F541-A3E2-961CABC80672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35200" yWindow="2040" windowWidth="26540" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35200" yWindow="1780" windowWidth="26540" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1421,7 +1421,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1533,7 +1533,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
